--- a/NformTester/NformTester/Keywordscripts/700.30.100_DataLogHistoryforDevicesforspecificduration.xlsx
+++ b/NformTester/NformTester/Keywordscripts/700.30.100_DataLogHistoryforDevicesforspecificduration.xlsx
@@ -3703,12 +3703,6 @@
     <t>SingleManual</t>
   </si>
   <si>
-    <t>$SNMP_GXT_1$</t>
-  </si>
-  <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-  </si>
-  <si>
     <t>"Description for GXT"</t>
   </si>
   <si>
@@ -3726,9 +3720,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"{Left}{Left}{2}{0}{1}{3}{Right}{0}{5}{Right}{2}{0}"</t>
-  </si>
-  <si>
     <t>; Prerequisites 1) Devices in Nform viewer. 2) Data points of devices should be logged with some interval.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -3742,6 +3733,17 @@
   </si>
   <si>
     <t>"{Left}{Left}{2}{0}{1}{4}{Right}{0}{6}{Right}{1}{3}"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_0$</t>
+  </si>
+  <si>
+    <t>"{2}{0}{1}{3}{Right}{0}{2}{Right}{2}{0}"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4753,8 +4755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4960,19 +4962,19 @@
         <v>820</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>831</v>
+      </c>
+      <c r="K6" s="21" t="s">
         <v>821</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="L6" s="21" t="s">
         <v>822</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="M6" s="21" t="s">
         <v>823</v>
-      </c>
-      <c r="L6" s="21" t="s">
-        <v>824</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>825</v>
       </c>
       <c r="N6" s="22"/>
       <c r="O6" s="4"/>
@@ -4982,13 +4984,13 @@
         <v>758</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C7" s="7">
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
@@ -5011,7 +5013,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
@@ -5127,7 +5129,7 @@
         <v>56</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -5594,7 +5596,7 @@
         <v>3</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
@@ -5671,7 +5673,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
@@ -5736,7 +5738,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="7"/>
@@ -5770,7 +5772,7 @@
         <v>811</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="J36" s="7" t="b">
         <v>0</v>
@@ -5801,7 +5803,7 @@
         <v>811</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="J37" s="7" t="b">
         <v>0</v>
